--- a/documents/adult_awards_2025.xlsx
+++ b/documents/adult_awards_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JohnSlaughter\Documents\Scouts\web\ntrail.org\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1458B-C018-4083-AEA2-770618F1A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C182E-F269-4484-A152-24D4AD427B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26160" yWindow="2670" windowWidth="25635" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2697,8 +2697,8 @@
   </sheetPr>
   <dimension ref="A1:K327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2734,20 +2734,20 @@
       <c r="A2" s="2">
         <v>2024</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>589</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7">
         <v>2024</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="21" t="s">
         <v>221</v>
       </c>
       <c r="H2" s="11"/>
@@ -2765,19 +2765,19 @@
       <c r="A3" s="2">
         <v>2024</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>590</v>
       </c>
       <c r="E3" s="7">
         <v>2024</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="21" t="s">
         <v>150</v>
       </c>
       <c r="I3" s="2">
